--- a/natmiOut/OldD2/LR-pairs_lrc2p/Liph-Lpar4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Liph-Lpar4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.061328825620584</v>
+        <v>0.2227763333333333</v>
       </c>
       <c r="H2">
-        <v>0.061328825620584</v>
+        <v>0.668329</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.524218872864595</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5526860717245076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3962935721417</v>
+        <v>11.5645055</v>
       </c>
       <c r="N2">
-        <v>11.3962935721417</v>
+        <v>23.129011</v>
       </c>
       <c r="O2">
-        <v>0.3817123509775485</v>
+        <v>0.327436949529422</v>
       </c>
       <c r="P2">
-        <v>0.3817123509775485</v>
+        <v>0.2873950818646905</v>
       </c>
       <c r="Q2">
-        <v>0.6989213012068606</v>
+        <v>2.576298132103167</v>
       </c>
       <c r="R2">
-        <v>0.6989213012068606</v>
+        <v>15.457788792619</v>
       </c>
       <c r="S2">
-        <v>0.3817123509775485</v>
+        <v>0.1716486286165349</v>
       </c>
       <c r="T2">
-        <v>0.3817123509775485</v>
+        <v>0.1588392588287391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.061328825620584</v>
+        <v>0.2227763333333333</v>
       </c>
       <c r="H3">
-        <v>0.061328825620584</v>
+        <v>0.668329</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.524218872864595</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5526860717245076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.50957964723191</v>
+        <v>4.850017</v>
       </c>
       <c r="N3">
-        <v>4.50957964723191</v>
+        <v>14.550051</v>
       </c>
       <c r="O3">
-        <v>0.1510457973172326</v>
+        <v>0.1373231887559601</v>
       </c>
       <c r="P3">
-        <v>0.1510457973172326</v>
+        <v>0.1807951536829838</v>
       </c>
       <c r="Q3">
-        <v>0.2765672238072205</v>
+        <v>1.080469003864333</v>
       </c>
       <c r="R3">
-        <v>0.2765672238072205</v>
+        <v>9.724221034778999</v>
       </c>
       <c r="S3">
-        <v>0.1510457973172326</v>
+        <v>0.07198740722782142</v>
       </c>
       <c r="T3">
-        <v>0.1510457973172326</v>
+        <v>0.09992296327587695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.061328825620584</v>
+        <v>0.2227763333333333</v>
       </c>
       <c r="H4">
-        <v>0.061328825620584</v>
+        <v>0.668329</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.524218872864595</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5526860717245076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.82514937997111</v>
+        <v>4.991552666666666</v>
       </c>
       <c r="N4">
-        <v>4.82514937997111</v>
+        <v>14.974658</v>
       </c>
       <c r="O4">
-        <v>0.1616156254651925</v>
+        <v>0.1413306240019329</v>
       </c>
       <c r="P4">
-        <v>0.1616156254651925</v>
+        <v>0.186071209953843</v>
       </c>
       <c r="Q4">
-        <v>0.2959207449175172</v>
+        <v>1.111999800720222</v>
       </c>
       <c r="R4">
-        <v>0.2959207449175172</v>
+        <v>10.007998206482</v>
       </c>
       <c r="S4">
-        <v>0.1616156254651925</v>
+        <v>0.07408818041554313</v>
       </c>
       <c r="T4">
-        <v>0.1616156254651925</v>
+        <v>0.1028389660904156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2227763333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.668329</v>
+      </c>
+      <c r="I5">
+        <v>0.524218872864595</v>
+      </c>
+      <c r="J5">
+        <v>0.5526860717245076</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.9121915</v>
+      </c>
+      <c r="N5">
+        <v>27.824383</v>
+      </c>
+      <c r="O5">
+        <v>0.393909237712685</v>
+      </c>
+      <c r="P5">
+        <v>0.3457385544984826</v>
+      </c>
+      <c r="Q5">
+        <v>3.099307011001167</v>
+      </c>
+      <c r="R5">
+        <v>18.595842066007</v>
+      </c>
+      <c r="S5">
+        <v>0.2064946566046956</v>
+      </c>
+      <c r="T5">
+        <v>0.1910848835294759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J6">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>11.5645055</v>
+      </c>
+      <c r="N6">
+        <v>23.129011</v>
+      </c>
+      <c r="O6">
+        <v>0.327436949529422</v>
+      </c>
+      <c r="P6">
+        <v>0.2873950818646905</v>
+      </c>
+      <c r="Q6">
+        <v>0.3609320714901667</v>
+      </c>
+      <c r="R6">
+        <v>2.165592428941</v>
+      </c>
+      <c r="S6">
+        <v>0.02404748671087859</v>
+      </c>
+      <c r="T6">
+        <v>0.02225293028342878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J7">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.850017</v>
+      </c>
+      <c r="N7">
+        <v>14.550051</v>
+      </c>
+      <c r="O7">
+        <v>0.1373231887559601</v>
+      </c>
+      <c r="P7">
+        <v>0.1807951536829838</v>
+      </c>
+      <c r="Q7">
+        <v>0.1513706472423333</v>
+      </c>
+      <c r="R7">
+        <v>1.362335825181</v>
+      </c>
+      <c r="S7">
+        <v>0.01008523186357041</v>
+      </c>
+      <c r="T7">
+        <v>0.01399892414437146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J8">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.991552666666666</v>
+      </c>
+      <c r="N8">
+        <v>14.974658</v>
+      </c>
+      <c r="O8">
+        <v>0.1413306240019329</v>
+      </c>
+      <c r="P8">
+        <v>0.186071209953843</v>
+      </c>
+      <c r="Q8">
+        <v>0.1557880225775556</v>
+      </c>
+      <c r="R8">
+        <v>1.402092203198</v>
+      </c>
+      <c r="S8">
+        <v>0.01037954423717618</v>
+      </c>
+      <c r="T8">
+        <v>0.01440744787972945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03121033333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.09363100000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.07344157934966895</v>
+      </c>
+      <c r="J9">
+        <v>0.07742975328264579</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.9121915</v>
+      </c>
+      <c r="N9">
+        <v>27.824383</v>
+      </c>
+      <c r="O9">
+        <v>0.393909237712685</v>
+      </c>
+      <c r="P9">
+        <v>0.3457385544984826</v>
+      </c>
+      <c r="Q9">
+        <v>0.4342041341121667</v>
+      </c>
+      <c r="R9">
+        <v>2.605224804673</v>
+      </c>
+      <c r="S9">
+        <v>0.02892931653804377</v>
+      </c>
+      <c r="T9">
+        <v>0.02677045097511609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.105315</v>
+      </c>
+      <c r="H10">
+        <v>0.315945</v>
+      </c>
+      <c r="I10">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J10">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>11.5645055</v>
+      </c>
+      <c r="N10">
+        <v>23.129011</v>
+      </c>
+      <c r="O10">
+        <v>0.327436949529422</v>
+      </c>
+      <c r="P10">
+        <v>0.2873950818646905</v>
+      </c>
+      <c r="Q10">
+        <v>1.2179158967325</v>
+      </c>
+      <c r="R10">
+        <v>7.307495380394999</v>
+      </c>
+      <c r="S10">
+        <v>0.08114495400955384</v>
+      </c>
+      <c r="T10">
+        <v>0.07508946885537807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.061328825620584</v>
-      </c>
-      <c r="H5">
-        <v>0.061328825620584</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>9.12468823358037</v>
-      </c>
-      <c r="N5">
-        <v>9.12468823358037</v>
-      </c>
-      <c r="O5">
-        <v>0.3056262262400264</v>
-      </c>
-      <c r="P5">
-        <v>0.3056262262400264</v>
-      </c>
-      <c r="Q5">
-        <v>0.5596064135194452</v>
-      </c>
-      <c r="R5">
-        <v>0.5596064135194452</v>
-      </c>
-      <c r="S5">
-        <v>0.3056262262400264</v>
-      </c>
-      <c r="T5">
-        <v>0.3056262262400264</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.105315</v>
+      </c>
+      <c r="H11">
+        <v>0.315945</v>
+      </c>
+      <c r="I11">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J11">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.850017</v>
+      </c>
+      <c r="N11">
+        <v>14.550051</v>
+      </c>
+      <c r="O11">
+        <v>0.1373231887559601</v>
+      </c>
+      <c r="P11">
+        <v>0.1807951536829838</v>
+      </c>
+      <c r="Q11">
+        <v>0.510779540355</v>
+      </c>
+      <c r="R11">
+        <v>4.597015863195</v>
+      </c>
+      <c r="S11">
+        <v>0.0340312351799698</v>
+      </c>
+      <c r="T11">
+        <v>0.04723745435585908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.105315</v>
+      </c>
+      <c r="H12">
+        <v>0.315945</v>
+      </c>
+      <c r="I12">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J12">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.991552666666666</v>
+      </c>
+      <c r="N12">
+        <v>14.974658</v>
+      </c>
+      <c r="O12">
+        <v>0.1413306240019329</v>
+      </c>
+      <c r="P12">
+        <v>0.186071209953843</v>
+      </c>
+      <c r="Q12">
+        <v>0.52568536909</v>
+      </c>
+      <c r="R12">
+        <v>4.731168321809999</v>
+      </c>
+      <c r="S12">
+        <v>0.0350243520203205</v>
+      </c>
+      <c r="T12">
+        <v>0.04861596181137785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.105315</v>
+      </c>
+      <c r="H13">
+        <v>0.315945</v>
+      </c>
+      <c r="I13">
+        <v>0.2478185620962198</v>
+      </c>
+      <c r="J13">
+        <v>0.2612761094176664</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.9121915</v>
+      </c>
+      <c r="N13">
+        <v>27.824383</v>
+      </c>
+      <c r="O13">
+        <v>0.393909237712685</v>
+      </c>
+      <c r="P13">
+        <v>0.3457385544984826</v>
+      </c>
+      <c r="Q13">
+        <v>1.4651624478225</v>
+      </c>
+      <c r="R13">
+        <v>8.790974686935</v>
+      </c>
+      <c r="S13">
+        <v>0.09761802088637564</v>
+      </c>
+      <c r="T13">
+        <v>0.09033322439505136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.131333</v>
+      </c>
+      <c r="I14">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J14">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.5645055</v>
+      </c>
+      <c r="N14">
+        <v>23.129011</v>
+      </c>
+      <c r="O14">
+        <v>0.327436949529422</v>
+      </c>
+      <c r="P14">
+        <v>0.2873950818646905</v>
+      </c>
+      <c r="Q14">
+        <v>0.7594006004157499</v>
+      </c>
+      <c r="R14">
+        <v>3.037602401662999</v>
+      </c>
+      <c r="S14">
+        <v>0.05059588019245471</v>
+      </c>
+      <c r="T14">
+        <v>0.03121342389714465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.131333</v>
+      </c>
+      <c r="I15">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J15">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.850017</v>
+      </c>
+      <c r="N15">
+        <v>14.550051</v>
+      </c>
+      <c r="O15">
+        <v>0.1373231887559601</v>
+      </c>
+      <c r="P15">
+        <v>0.1807951536829838</v>
+      </c>
+      <c r="Q15">
+        <v>0.3184836413304999</v>
+      </c>
+      <c r="R15">
+        <v>1.910901847983</v>
+      </c>
+      <c r="S15">
+        <v>0.02121931448459846</v>
+      </c>
+      <c r="T15">
+        <v>0.01963581190687632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.131333</v>
+      </c>
+      <c r="I16">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J16">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.991552666666666</v>
+      </c>
+      <c r="N16">
+        <v>14.974658</v>
+      </c>
+      <c r="O16">
+        <v>0.1413306240019329</v>
+      </c>
+      <c r="P16">
+        <v>0.186071209953843</v>
+      </c>
+      <c r="Q16">
+        <v>0.3277777931856666</v>
+      </c>
+      <c r="R16">
+        <v>1.966666759114</v>
+      </c>
+      <c r="S16">
+        <v>0.02183854732889309</v>
+      </c>
+      <c r="T16">
+        <v>0.02020883417232014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.06566649999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.131333</v>
+      </c>
+      <c r="I17">
+        <v>0.1545209856895164</v>
+      </c>
+      <c r="J17">
+        <v>0.1086080655751804</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.9121915</v>
+      </c>
+      <c r="N17">
+        <v>27.824383</v>
+      </c>
+      <c r="O17">
+        <v>0.393909237712685</v>
+      </c>
+      <c r="P17">
+        <v>0.3457385544984826</v>
+      </c>
+      <c r="Q17">
+        <v>0.9135649231347499</v>
+      </c>
+      <c r="R17">
+        <v>3.654259692539</v>
+      </c>
+      <c r="S17">
+        <v>0.0608672436835701</v>
+      </c>
+      <c r="T17">
+        <v>0.03754999559883929</v>
       </c>
     </row>
   </sheetData>
